--- a/biology/Zoologie/Amphiprion_biaculeatus/Amphiprion_biaculeatus.xlsx
+++ b/biology/Zoologie/Amphiprion_biaculeatus/Amphiprion_biaculeatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiprion biaculeatus, communément appelé le Poisson-clown à joues épineuses, est une espèce de poissons marins de la famille des Pomacentridae. Elle figure parmi les espèces les plus grandes de poissons clowns et, en milieu naturel, trouve abri uniquement dans l'anémone de mer Entacmaea quadricolor[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiprion biaculeatus, communément appelé le Poisson-clown à joues épineuses, est une espèce de poissons marins de la famille des Pomacentridae. Elle figure parmi les espèces les plus grandes de poissons clowns et, en milieu naturel, trouve abri uniquement dans l'anémone de mer Entacmaea quadricolor.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutualisme avec les anémones de mer
-Comme les autres espèces de poissons-clowns, Amphiprion biaculeatus vit en interaction avec des anémones de mer. Il ne s'associe cependant qu'avec l'espèce Entacmaea quadricolor, généralement dans sa forme solitaire[2].
+          <t>Mutualisme avec les anémones de mer</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces de poissons-clowns, Amphiprion biaculeatus vit en interaction avec des anémones de mer. Il ne s'associe cependant qu'avec l'espèce Entacmaea quadricolor, généralement dans sa forme solitaire.
 </t>
         </is>
       </c>
@@ -569,9 +588,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiprion biaculeatus est présent depuis l'archipel indomalais jusqu'au nord du Queensland[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiprion biaculeatus est présent depuis l'archipel indomalais jusqu'au nord du Queensland.
 </t>
         </is>
       </c>
@@ -600,12 +621,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au niveau de la classification scientifique des espèces, le Poisson-clown à joues épineuses fait partie des poissons osseux de la classe des actinoptérygiens ou poissons à nageoires rayonnées, et de la famille des poissons-demoiselles, les Pomacentridae. Il a longtemps été considéré comme le seul représentant d’un genre à part, Premnas Cuvier, 1817[3], qui formait avec Amphiprion Bloch &amp; Schneider, 1801[4] la sous-famille des Amphiprioninae dans des familles des Pomacentridés[5].
-En 2001, Kevin L. Tang (d) a confirmé que la sous-famille des Amphiprioninae est monophylétique. Le genre Premnas a été fusionné à Amphiprion, et est considéré comme un synonyme plus récent[6],[7].
-Synonymes
-Amphiprion biaculeatus (Bloch, 1790) présente plusieurs synonymes considérés comme non valides[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au niveau de la classification scientifique des espèces, le Poisson-clown à joues épineuses fait partie des poissons osseux de la classe des actinoptérygiens ou poissons à nageoires rayonnées, et de la famille des poissons-demoiselles, les Pomacentridae. Il a longtemps été considéré comme le seul représentant d’un genre à part, Premnas Cuvier, 1817, qui formait avec Amphiprion Bloch &amp; Schneider, 1801 la sous-famille des Amphiprioninae dans des familles des Pomacentridés.
+En 2001, Kevin L. Tang (d) a confirmé que la sous-famille des Amphiprioninae est monophylétique. Le genre Premnas a été fusionné à Amphiprion, et est considéré comme un synonyme plus récent,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amphiprion_biaculeatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphiprion_biaculeatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Amphiprion biaculeatus (Bloch, 1790) présente plusieurs synonymes considérés comme non valides :
 Chaetodon biaculeatus Bloch, 1790 (protonyme)
 Holocentrus sonnerat Lacepède, 1802
 Lutianus trifasciatus Schneider, 1801
